--- a/src/com/data/Test Cases Elc.xlsx
+++ b/src/com/data/Test Cases Elc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="170">
   <si>
     <t>TCID</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>_electrical</t>
+  </si>
+  <si>
+    <t>Emergency Lighting (LL 16/84)</t>
   </si>
 </sst>
 </file>
@@ -2674,9 +2677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP36" sqref="AP36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
@@ -2700,7 +2703,7 @@
     <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.85546875" customWidth="1"/>
     <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.42578125" customWidth="1"/>
@@ -3885,7 +3888,7 @@
         <v>3</v>
       </c>
       <c r="W20" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="X20" s="38" t="s">
         <v>8</v>
@@ -4422,8 +4425,8 @@
       <c r="U28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>163</v>
+      <c r="W28" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="X28" s="17" t="s">
         <v>8</v>
@@ -4697,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="W32" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="X32" s="38" t="s">
         <v>8</v>
@@ -4754,7 +4757,7 @@
         <v>59</v>
       </c>
       <c r="AP32" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AQ32" s="38" t="s">
         <v>8</v>
@@ -5014,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="W36" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="X36" s="38" t="s">
         <v>8</v>
@@ -5071,7 +5074,7 @@
         <v>59</v>
       </c>
       <c r="AP36" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AQ36" s="38" t="s">
         <v>8</v>
@@ -5331,8 +5334,8 @@
       <c r="U40" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="W40" s="11" t="s">
-        <v>163</v>
+      <c r="W40" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="X40" s="17" t="s">
         <v>8</v>
@@ -5631,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="W44" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="X44" s="38" t="s">
         <v>8</v>
@@ -6496,7 +6499,7 @@
         <v>3</v>
       </c>
       <c r="W56" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="X56" s="38" t="s">
         <v>8</v>
@@ -6814,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="W60" s="33" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="X60" s="38" t="s">
         <v>8</v>

--- a/src/com/data/Test Cases Elc.xlsx
+++ b/src/com/data/Test Cases Elc.xlsx
@@ -537,25 +537,7 @@
     <t>1yes</t>
   </si>
   <si>
-    <t>Field Sign Inspection</t>
-  </si>
-  <si>
     <t>ElFieldSignInspectionTest</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Electrical </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Field Sign Inspection</t>
-    </r>
   </si>
   <si>
     <t>2yes</t>
@@ -679,6 +661,24 @@
   </si>
   <si>
     <t>Emergency Lighting (LL 16/84)</t>
+  </si>
+  <si>
+    <t>Field Sign</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Electrical </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Field Sign</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>3</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>3</v>
@@ -2648,7 +2648,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>3</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>3</v>
@@ -2677,9 +2677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP36" sqref="AP36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="10" spans="1:53" s="15" customFormat="1" ht="12.75">
       <c r="A10" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -3164,10 +3164,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>6</v>
@@ -3316,7 +3316,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>25</v>
@@ -3325,10 +3325,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>16</v>
@@ -3367,7 +3367,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="33" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="X12" s="38" t="s">
         <v>8</v>
@@ -3405,7 +3405,7 @@
     <row r="13" spans="1:53" s="31" customFormat="1"/>
     <row r="14" spans="1:53" s="15" customFormat="1" ht="12.75">
       <c r="A14" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -3432,10 +3432,10 @@
         <v>5</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>6</v>
@@ -3584,7 +3584,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>25</v>
@@ -3593,10 +3593,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>20</v>
@@ -3620,7 +3620,7 @@
         <v>132</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U16" s="33" t="s">
         <v>3</v>
@@ -3667,7 +3667,7 @@
     <row r="17" spans="1:55" s="31" customFormat="1"/>
     <row r="18" spans="1:55" s="15" customFormat="1" ht="12.75">
       <c r="A18" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -3694,10 +3694,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>6</v>
@@ -3846,7 +3846,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>25</v>
@@ -3855,10 +3855,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J20" s="33" t="s">
         <v>20</v>
@@ -3882,13 +3882,13 @@
         <v>132</v>
       </c>
       <c r="S20" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U20" s="33" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X20" s="38" t="s">
         <v>8</v>
@@ -3956,10 +3956,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>6</v>
@@ -4117,10 +4117,10 @@
         <v>18</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>16</v>
@@ -4223,10 +4223,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>6</v>
@@ -4375,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>25</v>
@@ -4384,10 +4384,10 @@
         <v>18</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>16</v>
@@ -4426,7 +4426,7 @@
         <v>3</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X28" s="17" t="s">
         <v>8</v>
@@ -4488,10 +4488,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>6</v>
@@ -4509,7 +4509,7 @@
         <v>21</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M31" s="34" t="s">
         <v>32</v>
@@ -4646,7 +4646,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>25</v>
@@ -4655,10 +4655,10 @@
         <v>18</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>16</v>
@@ -4676,7 +4676,7 @@
         <v>22</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M32" s="33" t="s">
         <v>25</v>
@@ -4700,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="W32" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X32" s="38" t="s">
         <v>8</v>
@@ -4757,7 +4757,7 @@
         <v>59</v>
       </c>
       <c r="AP32" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AQ32" s="38" t="s">
         <v>8</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="34" spans="1:55" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -4805,10 +4805,10 @@
         <v>5</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>6</v>
@@ -4826,7 +4826,7 @@
         <v>21</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M35" s="34" t="s">
         <v>32</v>
@@ -4963,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>25</v>
@@ -4972,10 +4972,10 @@
         <v>18</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>16</v>
@@ -4993,7 +4993,7 @@
         <v>22</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M36" s="33" t="s">
         <v>25</v>
@@ -5017,7 +5017,7 @@
         <v>3</v>
       </c>
       <c r="W36" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X36" s="38" t="s">
         <v>8</v>
@@ -5074,7 +5074,7 @@
         <v>59</v>
       </c>
       <c r="AP36" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AQ36" s="38" t="s">
         <v>8</v>
@@ -5123,10 +5123,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>6</v>
@@ -5144,7 +5144,7 @@
         <v>21</v>
       </c>
       <c r="L39" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M39" s="12" t="s">
         <v>32</v>
@@ -5290,10 +5290,10 @@
         <v>18</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>16</v>
@@ -5311,7 +5311,7 @@
         <v>22</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>25</v>
@@ -5335,7 +5335,7 @@
         <v>3</v>
       </c>
       <c r="W40" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X40" s="17" t="s">
         <v>8</v>
@@ -5344,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="Z40" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AA40" s="11" t="s">
         <v>3</v>
@@ -5428,10 +5428,10 @@
         <v>5</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>6</v>
@@ -5580,7 +5580,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>25</v>
@@ -5589,10 +5589,10 @@
         <v>18</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>16</v>
@@ -5634,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="W44" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X44" s="38" t="s">
         <v>8</v>
@@ -5745,10 +5745,10 @@
         <v>5</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>6</v>
@@ -5906,10 +5906,10 @@
         <v>18</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G48" s="33" t="s">
         <v>16</v>
@@ -6016,10 +6016,10 @@
         <v>5</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>6</v>
@@ -6177,10 +6177,10 @@
         <v>18</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>16</v>
@@ -6287,10 +6287,10 @@
         <v>5</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>6</v>
@@ -6308,7 +6308,7 @@
         <v>21</v>
       </c>
       <c r="L55" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M55" s="34" t="s">
         <v>32</v>
@@ -6454,10 +6454,10 @@
         <v>18</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>16</v>
@@ -6475,7 +6475,7 @@
         <v>22</v>
       </c>
       <c r="L56" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M56" s="33" t="s">
         <v>25</v>
@@ -6499,7 +6499,7 @@
         <v>3</v>
       </c>
       <c r="W56" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X56" s="38" t="s">
         <v>8</v>
@@ -6556,7 +6556,7 @@
         <v>59</v>
       </c>
       <c r="AP56" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AQ56" s="38" t="s">
         <v>8</v>
@@ -6605,10 +6605,10 @@
         <v>5</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F59" s="39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>6</v>
@@ -6626,7 +6626,7 @@
         <v>21</v>
       </c>
       <c r="L59" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M59" s="34" t="s">
         <v>32</v>
@@ -6772,10 +6772,10 @@
         <v>18</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>16</v>
@@ -6793,7 +6793,7 @@
         <v>22</v>
       </c>
       <c r="L60" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M60" s="33" t="s">
         <v>25</v>
@@ -6817,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="W60" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X60" s="38" t="s">
         <v>8</v>
@@ -6874,7 +6874,7 @@
         <v>59</v>
       </c>
       <c r="AP60" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AQ60" s="38" t="s">
         <v>8</v>
@@ -7024,7 +7024,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F65" s="19" t="s">
         <v>34</v>
@@ -7185,7 +7185,7 @@
         <v>18</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L66" s="11" t="s">
         <v>79</v>

--- a/src/com/data/Test Cases Elc.xlsx
+++ b/src/com/data/Test Cases Elc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="191">
   <si>
     <t>TCID</t>
   </si>
@@ -712,6 +712,48 @@
   </si>
   <si>
     <t>user :: null :: null :: null :: null :: Temporary Light &amp; Power :: null :: null :: null ::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antenna ::  :: I ::  :: permit  ::  ::  ::  ::  ::  ::  :: exem ::  ::  :: </t>
+  </si>
+  <si>
+    <t>ElOnElAntenna</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Electrical on Antenna </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subsequent filing</t>
+    </r>
+  </si>
+  <si>
+    <t>AJOETEST2@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>ElOnCurbCut</t>
+  </si>
+  <si>
+    <t>ElOnAntenna</t>
+  </si>
+  <si>
+    <t>Curb Cut ::  :: I ::  :: approved :: 888 ::  ::  :: rome18 ::  ::  :: exempted</t>
+  </si>
+  <si>
+    <t>SubsequentOnCurbCut</t>
+  </si>
+  <si>
+    <t>SubsequentOnElectrical</t>
+  </si>
+  <si>
+    <t>SubsequentOnAntenna</t>
   </si>
 </sst>
 </file>
@@ -2538,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -2604,32 +2646,32 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="5" customFormat="1">
-      <c r="A8" s="11" t="s">
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1">
+      <c r="A10" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>3</v>
@@ -2637,15 +2679,15 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="33" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="33" t="s">
-        <v>131</v>
+      <c r="A12" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>3</v>
@@ -2653,7 +2695,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="33" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>3</v>
@@ -2661,7 +2703,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>3</v>
@@ -2669,9 +2711,77 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="33" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="33"/>
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2683,11 +2793,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA88"/>
+  <dimension ref="A1:BA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A88" sqref="A88:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15"/>
@@ -2740,7 +2850,7 @@
     <col min="51" max="51" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="27" customFormat="1" ht="12.75">
+    <row r="1" spans="1:53" s="27" customFormat="1" ht="12.75">
       <c r="A1" s="24"/>
       <c r="B1" s="25"/>
       <c r="C1" s="24"/>
@@ -2788,7 +2898,7 @@
       <c r="AW1" s="24"/>
       <c r="AX1" s="26"/>
     </row>
-    <row r="2" spans="1:51" s="27" customFormat="1" ht="12.75">
+    <row r="2" spans="1:53" s="27" customFormat="1" ht="12.75">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="24"/>
@@ -2836,7 +2946,7 @@
       <c r="AW2" s="24"/>
       <c r="AX2" s="26"/>
     </row>
-    <row r="3" spans="1:51" s="27" customFormat="1" ht="12.75">
+    <row r="3" spans="1:53" s="27" customFormat="1" ht="12.75">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="24"/>
@@ -2884,7 +2994,7 @@
       <c r="AW3" s="24"/>
       <c r="AX3" s="26"/>
     </row>
-    <row r="4" spans="1:51" s="27" customFormat="1" ht="12.75">
+    <row r="4" spans="1:53" s="27" customFormat="1" ht="12.75">
       <c r="A4" s="24"/>
       <c r="B4" s="25"/>
       <c r="C4" s="24"/>
@@ -2932,9 +3042,9 @@
       <c r="AW4" s="24"/>
       <c r="AX4" s="26"/>
     </row>
-    <row r="5" spans="1:51" s="13" customFormat="1" ht="12.75">
+    <row r="5" spans="1:53" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="33" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -2947,7 +3057,7 @@
       <c r="AV5" s="12"/>
       <c r="AW5" s="12"/>
     </row>
-    <row r="6" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
+    <row r="6" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>2</v>
       </c>
@@ -2982,7 +3092,7 @@
         <v>21</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>31</v>
@@ -3101,13 +3211,19 @@
       <c r="AY6" s="35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" s="31" customFormat="1" ht="25.5">
+      <c r="AZ6" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA6" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" s="31" customFormat="1" ht="38.25">
       <c r="A7" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>24</v>
@@ -3121,12 +3237,24 @@
       <c r="F7" s="31" t="s">
         <v>151</v>
       </c>
+      <c r="G7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="J7" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>22</v>
       </c>
+      <c r="L7" s="34" t="s">
+        <v>161</v>
+      </c>
       <c r="M7" s="31" t="s">
         <v>24</v>
       </c>
@@ -3143,13 +3271,13 @@
         <v>127</v>
       </c>
       <c r="S7" s="31" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="T7" s="31" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="V7" s="36" t="s">
         <v>8</v>
@@ -3157,11 +3285,17 @@
       <c r="W7" s="31" t="s">
         <v>3</v>
       </c>
+      <c r="X7" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="Y7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Z7" s="31" t="s">
-        <v>57</v>
+      <c r="Z7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="AB7" s="43" t="s">
         <v>18</v>
@@ -3181,261 +3315,227 @@
       <c r="AG7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AO7" s="36"/>
+      <c r="AH7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK7" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN7" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="AV7" s="36"/>
-    </row>
-    <row r="8" spans="1:51" s="31" customFormat="1" ht="25.5">
-      <c r="A8" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="AZ7" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="V8" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="W8" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z8" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB8" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE8" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO8" s="36"/>
-      <c r="AV8" s="36"/>
-    </row>
-    <row r="9" spans="1:51" s="31" customFormat="1" ht="25.5">
-      <c r="A9" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="V9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="W9" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z9" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB9" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD9" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO9" s="36"/>
-      <c r="AV9" s="36"/>
-    </row>
-    <row r="10" spans="1:51" s="31" customFormat="1" ht="25.5">
-      <c r="A10" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="V10" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="W10" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB10" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD10" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE10" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF10" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO10" s="36"/>
-      <c r="AV10" s="36"/>
-    </row>
-    <row r="11" spans="1:51" s="31" customFormat="1" ht="25.5">
+    </row>
+    <row r="8" spans="1:53" s="29" customFormat="1"/>
+    <row r="9" spans="1:53" s="13" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+    </row>
+    <row r="10" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A10" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD10" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF10" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO10" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP10" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ10" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS10" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV10" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW10" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX10" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ10" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA10" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" s="31" customFormat="1" ht="51">
       <c r="A11" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>24</v>
@@ -3449,12 +3549,24 @@
       <c r="F11" s="31" t="s">
         <v>151</v>
       </c>
+      <c r="G11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="J11" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>22</v>
       </c>
+      <c r="L11" s="34" t="s">
+        <v>187</v>
+      </c>
       <c r="M11" s="31" t="s">
         <v>24</v>
       </c>
@@ -3471,13 +3583,13 @@
         <v>127</v>
       </c>
       <c r="S11" s="31" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="T11" s="31" t="s">
         <v>3</v>
       </c>
       <c r="U11" s="31" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="V11" s="36" t="s">
         <v>8</v>
@@ -3485,11 +3597,17 @@
       <c r="W11" s="31" t="s">
         <v>3</v>
       </c>
+      <c r="X11" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="Y11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Z11" s="31" t="s">
-        <v>57</v>
+      <c r="Z11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="AB11" s="43" t="s">
         <v>18</v>
@@ -3509,543 +3627,779 @@
       <c r="AG11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="36"/>
+      <c r="AH11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN11" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO11" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="AV11" s="36"/>
-    </row>
-    <row r="12" spans="1:51" s="31" customFormat="1" ht="25.5">
-      <c r="A12" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="43" t="s">
+      <c r="AZ11" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="31" t="s">
+    </row>
+    <row r="12" spans="1:53" s="29" customFormat="1"/>
+    <row r="13" spans="1:53" s="13" customFormat="1" ht="12" customHeight="1">
+      <c r="A13" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+    </row>
+    <row r="14" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A14" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="W14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC14" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD14" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF14" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG14" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH14" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL14" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM14" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO14" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP14" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS14" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT14" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU14" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV14" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX14" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY14" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ14" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA14" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" s="31" customFormat="1" ht="38.25">
+      <c r="A15" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F15" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="G15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="31" t="s">
+      <c r="K15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="31" t="s">
+      <c r="L15" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="Q12" s="31" t="s">
+      <c r="Q15" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="R12" s="31" t="s">
+      <c r="R15" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="S15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA15" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB15" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF15" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG15" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK15" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN15" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO15" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="36"/>
+      <c r="AZ15" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA15" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" s="29" customFormat="1"/>
+    <row r="17" spans="1:51" s="13" customFormat="1" ht="12.75">
+      <c r="A17" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+    </row>
+    <row r="18" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="W18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB18" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD18" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE18" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF18" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH18" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL18" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM18" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN18" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP18" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ18" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR18" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS18" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT18" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU18" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX18" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY18" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" s="31" customFormat="1" ht="25.5">
+      <c r="A19" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="R19" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S19" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="T12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="V12" s="36" t="s">
+      <c r="T19" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="V19" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="31" t="s">
+      <c r="W19" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" s="43" t="s">
+      <c r="AB19" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AC12" s="31" t="s">
+      <c r="AC19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AD12" s="31" t="s">
+      <c r="AD19" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AE12" s="31" t="s">
+      <c r="AE19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AF12" s="31" t="s">
+      <c r="AF19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AG12" s="31" t="s">
+      <c r="AG19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AO12" s="36"/>
-      <c r="AV12" s="36"/>
-    </row>
-    <row r="13" spans="1:51" s="31" customFormat="1" ht="25.5">
-      <c r="A13" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="43" t="s">
+      <c r="AO19" s="36"/>
+      <c r="AV19" s="36"/>
+    </row>
+    <row r="20" spans="1:51" s="31" customFormat="1" ht="25.5">
+      <c r="A20" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E20" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F20" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="31" t="s">
+      <c r="M20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="31" t="s">
+      <c r="Q20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="R13" s="31" t="s">
+      <c r="R20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="S13" s="31" t="s">
+      <c r="S20" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="T13" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="U13" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="V13" s="36" t="s">
+      <c r="T20" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="V20" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="W13" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="31" t="s">
+      <c r="W20" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AB13" s="43" t="s">
+      <c r="AB20" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AC13" s="31" t="s">
+      <c r="AC20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AD13" s="31" t="s">
+      <c r="AD20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AE13" s="31" t="s">
+      <c r="AE20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AF13" s="31" t="s">
+      <c r="AF20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AG13" s="31" t="s">
+      <c r="AG20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AO13" s="36"/>
-      <c r="AV13" s="36"/>
-    </row>
-    <row r="14" spans="1:51" s="29" customFormat="1"/>
-    <row r="15" spans="1:51" s="29" customFormat="1"/>
-    <row r="16" spans="1:51" s="27" customFormat="1" ht="12.75">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="24"/>
-      <c r="AV16" s="24"/>
-      <c r="AW16" s="24"/>
-      <c r="AX16" s="26"/>
-    </row>
-    <row r="17" spans="1:51" s="27" customFormat="1" ht="12.75">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="AU17" s="24"/>
-      <c r="AV17" s="24"/>
-      <c r="AW17" s="24"/>
-      <c r="AX17" s="26"/>
-    </row>
-    <row r="18" spans="1:51" s="27" customFormat="1" ht="12.75">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="26"/>
-    </row>
-    <row r="19" spans="1:51" s="27" customFormat="1" ht="12.75">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="24"/>
-      <c r="AV19" s="24"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="26"/>
-    </row>
-    <row r="20" spans="1:51" s="13" customFormat="1" ht="12.75">
-      <c r="A20" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-    </row>
-    <row r="21" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="T21" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="U21" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="V21" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="W21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="X21" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y21" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA21" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB21" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC21" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD21" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE21" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF21" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG21" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH21" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ21" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK21" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL21" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN21" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO21" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP21" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ21" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR21" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS21" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT21" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU21" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV21" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW21" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX21" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY21" s="35" t="s">
-        <v>55</v>
-      </c>
+      <c r="AO20" s="36"/>
+      <c r="AV20" s="36"/>
+    </row>
+    <row r="21" spans="1:51" s="31" customFormat="1" ht="25.5">
+      <c r="A21" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="V21" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB21" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD21" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF21" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG21" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO21" s="36"/>
+      <c r="AV21" s="36"/>
     </row>
     <row r="22" spans="1:51" s="31" customFormat="1" ht="25.5">
       <c r="A22" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>24</v>
@@ -4059,15 +4413,6 @@
       <c r="F22" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>7</v>
-      </c>
       <c r="J22" s="31" t="s">
         <v>20</v>
       </c>
@@ -4096,7 +4441,7 @@
         <v>3</v>
       </c>
       <c r="U22" s="31" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V22" s="36" t="s">
         <v>8</v>
@@ -4131,522 +4476,449 @@
       <c r="AO22" s="36"/>
       <c r="AV22" s="36"/>
     </row>
-    <row r="23" spans="1:51" s="29" customFormat="1"/>
-    <row r="24" spans="1:51" s="13" customFormat="1" ht="12.75">
-      <c r="A24" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AO24" s="12"/>
-      <c r="AP24" s="12"/>
-      <c r="AV24" s="12"/>
-      <c r="AW24" s="12"/>
-    </row>
-    <row r="25" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A25" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="O25" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q25" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="R25" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="T25" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="V25" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="W25" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="X25" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y25" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA25" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB25" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC25" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD25" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE25" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF25" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG25" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH25" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI25" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ25" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK25" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL25" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM25" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN25" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO25" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP25" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ25" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR25" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS25" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT25" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU25" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV25" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW25" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX25" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY25" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:51" s="31" customFormat="1" ht="25.5">
-      <c r="A26" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="43" t="s">
+    <row r="23" spans="1:51" s="31" customFormat="1" ht="25.5">
+      <c r="A23" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E23" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="J26" s="31" t="s">
+      <c r="F23" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="31" t="s">
+      <c r="M23" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="Q26" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="R26" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="S26" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="T26" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="V26" s="36" t="s">
+      <c r="Q23" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="T23" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="V23" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="W26" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y26" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="31" t="s">
+      <c r="W23" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AB26" s="43" t="s">
+      <c r="AB23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AC26" s="31" t="s">
+      <c r="AC23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AD26" s="31" t="s">
+      <c r="AD23" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AE26" s="31" t="s">
+      <c r="AE23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AF26" s="31" t="s">
+      <c r="AF23" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AG26" s="31" t="s">
+      <c r="AG23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AO26" s="36"/>
-      <c r="AV26" s="36"/>
-    </row>
+      <c r="AO23" s="36"/>
+      <c r="AV23" s="36"/>
+    </row>
+    <row r="24" spans="1:51" s="31" customFormat="1" ht="25.5">
+      <c r="A24" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="V24" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB24" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC24" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD24" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE24" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF24" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG24" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO24" s="36"/>
+      <c r="AV24" s="36"/>
+    </row>
+    <row r="25" spans="1:51" s="31" customFormat="1" ht="25.5">
+      <c r="A25" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="T25" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB25" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC25" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD25" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF25" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG25" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO25" s="36"/>
+      <c r="AV25" s="36"/>
+    </row>
+    <row r="26" spans="1:51" s="29" customFormat="1"/>
     <row r="27" spans="1:51" s="29" customFormat="1"/>
-    <row r="28" spans="1:51" s="13" customFormat="1" ht="12.75">
-      <c r="A28" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="12"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
-    </row>
-    <row r="29" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A29" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="O29" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q29" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="R29" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="S29" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="T29" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="V29" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="W29" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="X29" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y29" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z29" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA29" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB29" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC29" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD29" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE29" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF29" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG29" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH29" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI29" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ29" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK29" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL29" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM29" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN29" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO29" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP29" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ29" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR29" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS29" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT29" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU29" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV29" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW29" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX29" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY29" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:51" s="31" customFormat="1" ht="25.5">
-      <c r="A30" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q30" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="R30" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="S30" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="T30" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="U30" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="V30" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="W30" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="X30" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y30" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB30" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC30" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD30" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE30" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF30" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG30" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO30" s="36"/>
-      <c r="AV30" s="36"/>
-    </row>
-    <row r="31" spans="1:51" s="29" customFormat="1"/>
+    <row r="28" spans="1:51" s="27" customFormat="1" ht="12.75">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="26"/>
+    </row>
+    <row r="29" spans="1:51" s="27" customFormat="1" ht="12.75">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="24"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="24"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="24"/>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="26"/>
+    </row>
+    <row r="30" spans="1:51" s="27" customFormat="1" ht="12.75">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="24"/>
+      <c r="AV30" s="24"/>
+      <c r="AW30" s="24"/>
+      <c r="AX30" s="26"/>
+    </row>
+    <row r="31" spans="1:51" s="27" customFormat="1" ht="12.75">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="24"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="24"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="26"/>
+      <c r="AT31" s="26"/>
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="24"/>
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="26"/>
+    </row>
     <row r="32" spans="1:51" s="13" customFormat="1" ht="12.75">
-      <c r="A32" s="11" t="s">
-        <v>96</v>
+      <c r="A32" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -4659,17 +4931,17 @@
       <c r="AV32" s="12"/>
       <c r="AW32" s="12"/>
     </row>
-    <row r="33" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A33" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="35" t="s">
@@ -4678,183 +4950,183 @@
       <c r="F33" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="N33" s="10" t="s">
+      <c r="N33" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O33" s="10" t="s">
+      <c r="O33" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="P33" s="16" t="s">
+      <c r="P33" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="Q33" s="10" t="s">
+      <c r="Q33" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R33" s="10" t="s">
+      <c r="R33" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="S33" s="10" t="s">
+      <c r="S33" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="T33" s="10" t="s">
+      <c r="T33" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="U33" s="16" t="s">
+      <c r="U33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="V33" s="16" t="s">
+      <c r="V33" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="W33" s="16" t="s">
+      <c r="W33" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="X33" s="10" t="s">
+      <c r="X33" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Y33" s="10" t="s">
+      <c r="Y33" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Z33" s="10" t="s">
+      <c r="Z33" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AA33" s="16" t="s">
+      <c r="AA33" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AB33" s="10" t="s">
+      <c r="AB33" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AC33" s="16" t="s">
+      <c r="AC33" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AD33" s="17" t="s">
+      <c r="AD33" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AE33" s="16" t="s">
+      <c r="AE33" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="AF33" s="16" t="s">
+      <c r="AF33" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AG33" s="16" t="s">
+      <c r="AG33" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="AH33" s="16" t="s">
+      <c r="AH33" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AI33" s="16" t="s">
+      <c r="AI33" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AJ33" s="10" t="s">
+      <c r="AJ33" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AK33" s="10" t="s">
+      <c r="AK33" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="10" t="s">
+      <c r="AL33" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AM33" s="10" t="s">
+      <c r="AM33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AN33" s="16" t="s">
+      <c r="AN33" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AO33" s="16" t="s">
+      <c r="AO33" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AP33" s="16" t="s">
+      <c r="AP33" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AQ33" s="10" t="s">
+      <c r="AQ33" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AR33" s="10" t="s">
+      <c r="AR33" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AS33" s="16" t="s">
+      <c r="AS33" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AT33" s="10" t="s">
+      <c r="AT33" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AU33" s="16" t="s">
+      <c r="AU33" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="AV33" s="16" t="s">
+      <c r="AV33" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="AW33" s="16" t="s">
+      <c r="AW33" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AX33" s="10" t="s">
+      <c r="AX33" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AY33" s="16" t="s">
+      <c r="AY33" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:53" s="9" customFormat="1" ht="25.5">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:51" s="31" customFormat="1" ht="25.5">
+      <c r="A34" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>148</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="9" t="s">
+      <c r="M34" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="31" t="s">
         <v>73</v>
       </c>
       <c r="Q34" s="31" t="s">
@@ -4863,51 +5135,52 @@
       <c r="R34" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="S34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="V34" s="15" t="s">
+      <c r="S34" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="T34" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="V34" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="W34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z34" s="9" t="s">
+      <c r="W34" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AB34" s="21" t="s">
+      <c r="AB34" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AC34" s="9" t="s">
+      <c r="AC34" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AD34" s="9" t="s">
+      <c r="AD34" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AE34" s="9" t="s">
+      <c r="AE34" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AF34" s="9" t="s">
+      <c r="AF34" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AG34" s="9" t="s">
+      <c r="AG34" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AO34" s="15"/>
-      <c r="AV34" s="15"/>
-    </row>
-    <row r="36" spans="1:53" s="13" customFormat="1" ht="12.75">
-      <c r="A36" s="11" t="s">
-        <v>97</v>
+      <c r="AO34" s="36"/>
+      <c r="AV34" s="36"/>
+    </row>
+    <row r="35" spans="1:51" s="29" customFormat="1"/>
+    <row r="36" spans="1:51" s="13" customFormat="1" ht="12.75">
+      <c r="A36" s="33" t="s">
+        <v>153</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -4920,17 +5193,17 @@
       <c r="AV36" s="12"/>
       <c r="AW36" s="12"/>
     </row>
-    <row r="37" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A37" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="35" t="s">
@@ -4939,234 +5212,231 @@
       <c r="F37" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M37" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="10" t="s">
+      <c r="N37" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O37" s="10" t="s">
+      <c r="O37" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="P37" s="16" t="s">
+      <c r="P37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="Q37" s="10" t="s">
+      <c r="Q37" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R37" s="10" t="s">
+      <c r="R37" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="S37" s="10" t="s">
+      <c r="S37" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="T37" s="10" t="s">
+      <c r="T37" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="U37" s="16" t="s">
+      <c r="U37" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="V37" s="16" t="s">
+      <c r="V37" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="W37" s="16" t="s">
+      <c r="W37" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="X37" s="10" t="s">
+      <c r="X37" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="Y37" s="10" t="s">
+      <c r="Y37" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Z37" s="10" t="s">
+      <c r="Z37" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AA37" s="16" t="s">
+      <c r="AA37" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AB37" s="10" t="s">
+      <c r="AB37" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="AC37" s="16" t="s">
+      <c r="AC37" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AD37" s="17" t="s">
+      <c r="AD37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AE37" s="16" t="s">
+      <c r="AE37" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="AF37" s="16" t="s">
+      <c r="AF37" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="AG37" s="16" t="s">
+      <c r="AG37" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="AH37" s="16" t="s">
+      <c r="AH37" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AI37" s="16" t="s">
+      <c r="AI37" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AJ37" s="10" t="s">
+      <c r="AJ37" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AK37" s="10" t="s">
+      <c r="AK37" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AL37" s="10" t="s">
+      <c r="AL37" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AM37" s="10" t="s">
+      <c r="AM37" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AN37" s="16" t="s">
+      <c r="AN37" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AO37" s="16" t="s">
+      <c r="AO37" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AP37" s="16" t="s">
+      <c r="AP37" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AQ37" s="10" t="s">
+      <c r="AQ37" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AR37" s="10" t="s">
+      <c r="AR37" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AS37" s="16" t="s">
+      <c r="AS37" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AT37" s="10" t="s">
+      <c r="AT37" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AU37" s="16" t="s">
+      <c r="AU37" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="AV37" s="16" t="s">
+      <c r="AV37" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="AW37" s="16" t="s">
+      <c r="AW37" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AX37" s="10" t="s">
+      <c r="AX37" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AY37" s="16" t="s">
+      <c r="AY37" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:53" s="9" customFormat="1" ht="25.5">
-      <c r="A38" s="23" t="s">
+    <row r="38" spans="1:51" s="31" customFormat="1" ht="25.5">
+      <c r="A38" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>148</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q38" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="R38" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="S38" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="T38" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="V38" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W38" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y38" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB38" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC38" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD38" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE38" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="AF38" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="AG38" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q38" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="R38" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="S38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="V38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="W38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO38" s="15"/>
-      <c r="AV38" s="15"/>
-    </row>
-    <row r="40" spans="1:53" s="13" customFormat="1" ht="12" customHeight="1">
+      <c r="AO38" s="36"/>
+      <c r="AV38" s="36"/>
+    </row>
+    <row r="39" spans="1:51" s="29" customFormat="1"/>
+    <row r="40" spans="1:51" s="13" customFormat="1" ht="12.75">
       <c r="A40" s="33" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -5179,7 +5449,7 @@
       <c r="AV40" s="12"/>
       <c r="AW40" s="12"/>
     </row>
-    <row r="41" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
+    <row r="41" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
       <c r="A41" s="38" t="s">
         <v>2</v>
       </c>
@@ -5214,7 +5484,7 @@
         <v>21</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="M41" s="32" t="s">
         <v>31</v>
@@ -5333,19 +5603,13 @@
       <c r="AY41" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AZ41" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA41" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:53" s="31" customFormat="1" ht="38.25">
+    </row>
+    <row r="42" spans="1:51" s="31" customFormat="1" ht="25.5">
       <c r="A42" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>24</v>
@@ -5359,24 +5623,12 @@
       <c r="F42" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>7</v>
-      </c>
       <c r="J42" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K42" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="M42" s="31" t="s">
         <v>24</v>
       </c>
@@ -5387,13 +5639,13 @@
         <v>73</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R42" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S42" s="31" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="T42" s="31" t="s">
         <v>3</v>
@@ -5408,16 +5660,13 @@
         <v>3</v>
       </c>
       <c r="X42" s="31" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="Y42" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Z42" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA42" s="43" t="s">
-        <v>18</v>
+      <c r="Z42" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="AB42" s="43" t="s">
         <v>18</v>
@@ -5437,47 +5686,13 @@
       <c r="AG42" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AH42" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI42" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ42" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK42" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL42" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM42" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN42" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO42" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP42" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ42" s="31" t="s">
-        <v>3</v>
-      </c>
+      <c r="AO42" s="36"/>
       <c r="AV42" s="36"/>
-      <c r="AZ42" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA42" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:53" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A44" s="33" t="s">
-        <v>147</v>
+    </row>
+    <row r="43" spans="1:51" s="29" customFormat="1"/>
+    <row r="44" spans="1:51" s="13" customFormat="1" ht="12.75">
+      <c r="A44" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -5490,17 +5705,17 @@
       <c r="AV44" s="12"/>
       <c r="AW44" s="12"/>
     </row>
-    <row r="45" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A45" s="38" t="s">
+    <row r="45" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="35" t="s">
@@ -5509,192 +5724,183 @@
       <c r="F45" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="35" t="s">
+      <c r="I45" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J45" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="35" t="s">
+      <c r="K45" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="M45" s="32" t="s">
+      <c r="L45" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N45" s="32" t="s">
+      <c r="N45" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O45" s="32" t="s">
+      <c r="O45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P45" s="35" t="s">
+      <c r="P45" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Q45" s="32" t="s">
+      <c r="Q45" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R45" s="32" t="s">
+      <c r="R45" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="S45" s="32" t="s">
+      <c r="S45" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T45" s="32" t="s">
+      <c r="T45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U45" s="35" t="s">
+      <c r="U45" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="V45" s="35" t="s">
+      <c r="V45" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="W45" s="35" t="s">
+      <c r="W45" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="X45" s="32" t="s">
+      <c r="X45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y45" s="32" t="s">
+      <c r="Y45" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Z45" s="32" t="s">
+      <c r="Z45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AA45" s="35" t="s">
+      <c r="AA45" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AB45" s="32" t="s">
+      <c r="AB45" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AC45" s="35" t="s">
+      <c r="AC45" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD45" s="37" t="s">
+      <c r="AD45" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AE45" s="35" t="s">
+      <c r="AE45" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AF45" s="35" t="s">
+      <c r="AF45" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AG45" s="35" t="s">
+      <c r="AG45" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AH45" s="35" t="s">
+      <c r="AH45" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AI45" s="35" t="s">
+      <c r="AI45" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AJ45" s="32" t="s">
+      <c r="AJ45" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AK45" s="32" t="s">
+      <c r="AK45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AL45" s="32" t="s">
+      <c r="AL45" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AM45" s="32" t="s">
+      <c r="AM45" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AN45" s="35" t="s">
+      <c r="AN45" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AO45" s="35" t="s">
+      <c r="AO45" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AP45" s="35" t="s">
+      <c r="AP45" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AQ45" s="32" t="s">
+      <c r="AQ45" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AR45" s="32" t="s">
+      <c r="AR45" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AS45" s="35" t="s">
+      <c r="AS45" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AT45" s="32" t="s">
+      <c r="AT45" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AU45" s="35" t="s">
+      <c r="AU45" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AV45" s="35" t="s">
+      <c r="AV45" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AW45" s="35" t="s">
+      <c r="AW45" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AX45" s="32" t="s">
+      <c r="AX45" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AY45" s="35" t="s">
+      <c r="AY45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AZ45" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA45" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:53" s="31" customFormat="1" ht="51">
-      <c r="A46" s="42" t="s">
+    </row>
+    <row r="46" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A46" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>148</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="31" t="s">
+      <c r="H46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="31" t="s">
+      <c r="I46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="M46" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="31" t="s">
+      <c r="M46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Q46" s="31" t="s">
@@ -5703,93 +5909,51 @@
       <c r="R46" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="S46" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="V46" s="36" t="s">
+      <c r="S46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="V46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="W46" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="X46" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y46" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z46" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA46" s="43" t="s">
+      <c r="W46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB46" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AB46" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC46" s="31" t="s">
+      <c r="AC46" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD46" s="31" t="s">
+      <c r="AD46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE46" s="31" t="s">
+      <c r="AE46" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF46" s="31" t="s">
+      <c r="AF46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG46" s="31" t="s">
+      <c r="AG46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH46" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI46" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ46" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK46" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL46" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM46" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN46" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO46" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP46" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ46" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV46" s="36"/>
-      <c r="AZ46" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA46" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:53" s="29" customFormat="1"/>
-    <row r="48" spans="1:53" s="13" customFormat="1" ht="12.75">
+      <c r="AO46" s="15"/>
+      <c r="AV46" s="15"/>
+    </row>
+    <row r="48" spans="1:51" s="13" customFormat="1" ht="12.75">
       <c r="A48" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -5836,8 +6000,8 @@
       <c r="K49" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="35" t="s">
-        <v>159</v>
+      <c r="L49" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="M49" s="10" t="s">
         <v>31</v>
@@ -5956,19 +6120,13 @@
       <c r="AY49" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AZ49" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA49" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53" s="9" customFormat="1" ht="38.25">
+    </row>
+    <row r="50" spans="1:53" s="9" customFormat="1" ht="25.5">
       <c r="A50" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>24</v>
@@ -5997,9 +6155,6 @@
       <c r="K50" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="M50" s="9" t="s">
         <v>24</v>
       </c>
@@ -6009,8 +6164,8 @@
       <c r="O50" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Q50" s="9" t="s">
-        <v>3</v>
+      <c r="Q50" s="31" t="s">
+        <v>127</v>
       </c>
       <c r="R50" s="31" t="s">
         <v>127</v>
@@ -6030,18 +6185,13 @@
       <c r="W50" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X50" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="Y50" s="9" t="s">
         <v>3</v>
       </c>
       <c r="Z50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB50" s="43" t="s">
-        <v>18</v>
-      </c>
+      <c r="AB50" s="21"/>
       <c r="AC50" s="9" t="s">
         <v>15</v>
       </c>
@@ -6058,37 +6208,11 @@
         <v>7</v>
       </c>
       <c r="AO50" s="15"/>
-      <c r="AS50" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT50" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU50" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW50" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX50" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY50" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ50" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA50" s="43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:53" s="13" customFormat="1" ht="12.75">
+      <c r="AV50" s="15"/>
+    </row>
+    <row r="52" spans="1:53" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -6136,7 +6260,7 @@
         <v>21</v>
       </c>
       <c r="L53" s="35" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="M53" s="32" t="s">
         <v>31</v>
@@ -6187,81 +6311,87 @@
         <v>47</v>
       </c>
       <c r="AC53" s="35" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="AD53" s="37" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="AE53" s="35" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="AF53" s="35" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="AG53" s="35" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="AH53" s="35" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="AI53" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ53" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK53" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ53" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK53" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL53" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM53" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN53" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO53" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP53" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ53" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AL53" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM53" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN53" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO53" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP53" s="32" t="s">
+      <c r="AR53" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS53" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AQ53" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR53" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS53" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT53" s="35" t="s">
+      <c r="AT53" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU53" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV53" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW53" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX53" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="AU53" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV53" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW53" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX53" s="32" t="s">
-        <v>118</v>
       </c>
       <c r="AY53" s="35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:53" s="31" customFormat="1" ht="25.5">
+      <c r="AZ53" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA53" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" s="31" customFormat="1" ht="38.25">
       <c r="A54" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>24</v>
@@ -6290,6 +6420,9 @@
       <c r="K54" s="31" t="s">
         <v>22</v>
       </c>
+      <c r="L54" s="34" t="s">
+        <v>161</v>
+      </c>
       <c r="M54" s="31" t="s">
         <v>24</v>
       </c>
@@ -6299,9 +6432,6 @@
       <c r="O54" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="P54" s="41" t="s">
-        <v>61</v>
-      </c>
       <c r="Q54" s="31" t="s">
         <v>127</v>
       </c>
@@ -6323,83 +6453,77 @@
       <c r="W54" s="31" t="s">
         <v>3</v>
       </c>
+      <c r="X54" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="Y54" s="31" t="s">
         <v>3</v>
       </c>
       <c r="Z54" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AA54" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB54" s="40" t="s">
-        <v>78</v>
+      <c r="AA54" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB54" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="AC54" s="31" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AD54" s="31" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE54" s="31" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AF54" s="31" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AG54" s="31" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AH54" s="31" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AI54" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ54" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK54" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL54" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM54" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN54" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO54" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AK54" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL54" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM54" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN54" s="31" t="s">
-        <v>3</v>
-      </c>
       <c r="AP54" s="31" t="s">
         <v>3</v>
       </c>
       <c r="AQ54" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AR54" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS54" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT54" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU54" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV54" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW54" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:53" s="29" customFormat="1"/>
-    <row r="56" spans="1:53" s="13" customFormat="1" ht="12.75">
+      <c r="AV54" s="36"/>
+      <c r="AZ54" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA54" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" s="13" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="33" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
@@ -6447,7 +6571,7 @@
         <v>21</v>
       </c>
       <c r="L57" s="35" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="M57" s="32" t="s">
         <v>31</v>
@@ -6566,13 +6690,19 @@
       <c r="AY57" s="35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:53" s="31" customFormat="1" ht="25.5">
+      <c r="AZ57" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA57" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" s="31" customFormat="1" ht="51">
       <c r="A58" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>24</v>
@@ -6584,7 +6714,7 @@
         <v>148</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>16</v>
@@ -6601,6 +6731,9 @@
       <c r="K58" s="31" t="s">
         <v>22</v>
       </c>
+      <c r="L58" s="34" t="s">
+        <v>160</v>
+      </c>
       <c r="M58" s="31" t="s">
         <v>24</v>
       </c>
@@ -6611,10 +6744,10 @@
         <v>73</v>
       </c>
       <c r="Q58" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R58" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S58" s="31" t="s">
         <v>3</v>
@@ -6623,7 +6756,7 @@
         <v>3</v>
       </c>
       <c r="U58" s="31" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="V58" s="36" t="s">
         <v>8</v>
@@ -6632,13 +6765,16 @@
         <v>3</v>
       </c>
       <c r="X58" s="31" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="Y58" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Z58" s="31" t="s">
-        <v>57</v>
+      <c r="Z58" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA58" s="43" t="s">
+        <v>18</v>
       </c>
       <c r="AB58" s="43" t="s">
         <v>18</v>
@@ -6658,13 +6794,48 @@
       <c r="AG58" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AO58" s="36"/>
+      <c r="AH58" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI58" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ58" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK58" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL58" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM58" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN58" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO58" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP58" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ58" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="AV58" s="36"/>
+      <c r="AZ58" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA58" s="43" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="59" spans="1:53" s="29" customFormat="1"/>
     <row r="60" spans="1:53" s="13" customFormat="1" ht="12.75">
       <c r="A60" s="33" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -6763,70 +6934,70 @@
         <v>47</v>
       </c>
       <c r="AC61" s="35" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="AD61" s="37" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="AE61" s="35" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="AF61" s="35" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="AG61" s="35" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="AH61" s="35" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="AI61" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ61" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK61" s="32" t="s">
-        <v>38</v>
+        <v>106</v>
+      </c>
+      <c r="AJ61" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK61" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="AL61" s="32" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="AM61" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN61" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO61" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP61" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ61" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR61" s="32" t="s">
-        <v>49</v>
+        <v>109</v>
+      </c>
+      <c r="AN61" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO61" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP61" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ61" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR61" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="AS61" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT61" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU61" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV61" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW61" s="35" t="s">
-        <v>54</v>
+        <v>114</v>
+      </c>
+      <c r="AT61" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU61" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV61" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW61" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="AX61" s="32" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="AY61" s="35" t="s">
         <v>55</v>
@@ -6837,7 +7008,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C62" s="34" t="s">
         <v>24</v>
@@ -6849,7 +7020,7 @@
         <v>148</v>
       </c>
       <c r="F62" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>16</v>
@@ -6875,11 +7046,14 @@
       <c r="O62" s="31" t="s">
         <v>73</v>
       </c>
+      <c r="P62" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="Q62" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R62" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S62" s="31" t="s">
         <v>3</v>
@@ -6888,7 +7062,7 @@
         <v>3</v>
       </c>
       <c r="U62" s="31" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="V62" s="36" t="s">
         <v>8</v>
@@ -6896,40 +7070,83 @@
       <c r="W62" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X62" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="Y62" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Z62" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB62" s="43" t="s">
-        <v>18</v>
+      <c r="Z62" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA62" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB62" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="AC62" s="31" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AD62" s="31" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AE62" s="31" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AF62" s="31" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AG62" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO62" s="36"/>
-      <c r="AV62" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="AH62" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI62" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ62" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK62" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL62" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM62" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN62" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP62" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ62" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR62" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS62" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT62" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU62" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV62" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW62" s="31" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="63" spans="1:53" s="29" customFormat="1"/>
     <row r="64" spans="1:53" s="13" customFormat="1" ht="12.75">
       <c r="A64" s="33" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -6977,7 +7194,7 @@
         <v>21</v>
       </c>
       <c r="L65" s="35" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="M65" s="32" t="s">
         <v>31</v>
@@ -7096,19 +7313,13 @@
       <c r="AY65" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AZ65" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA65" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:53" s="31" customFormat="1" ht="38.25">
+    </row>
+    <row r="66" spans="1:53" s="31" customFormat="1" ht="25.5">
       <c r="A66" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C66" s="34" t="s">
         <v>24</v>
@@ -7120,7 +7331,7 @@
         <v>148</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>16</v>
@@ -7137,9 +7348,6 @@
       <c r="K66" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="M66" s="31" t="s">
         <v>24</v>
       </c>
@@ -7162,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="U66" s="31" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="V66" s="36" t="s">
         <v>8</v>
@@ -7176,11 +7384,8 @@
       <c r="Y66" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Z66" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA66" s="43" t="s">
-        <v>18</v>
+      <c r="Z66" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="AB66" s="43" t="s">
         <v>18</v>
@@ -7200,48 +7405,13 @@
       <c r="AG66" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AH66" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI66" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ66" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK66" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL66" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM66" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN66" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO66" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP66" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ66" s="31" t="s">
-        <v>3</v>
-      </c>
+      <c r="AO66" s="36"/>
       <c r="AV66" s="36"/>
-      <c r="AZ66" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA66" s="43" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="67" spans="1:53" s="29" customFormat="1"/>
     <row r="68" spans="1:53" s="13" customFormat="1" ht="12.75">
       <c r="A68" s="33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -7289,7 +7459,7 @@
         <v>21</v>
       </c>
       <c r="L69" s="35" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="M69" s="32" t="s">
         <v>31</v>
@@ -7408,19 +7578,13 @@
       <c r="AY69" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AZ69" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA69" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:53" s="31" customFormat="1" ht="38.25">
+    </row>
+    <row r="70" spans="1:53" s="31" customFormat="1" ht="25.5">
       <c r="A70" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>24</v>
@@ -7432,7 +7596,7 @@
         <v>148</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G70" s="31" t="s">
         <v>16</v>
@@ -7449,9 +7613,6 @@
       <c r="K70" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="34" t="s">
-        <v>161</v>
-      </c>
       <c r="M70" s="31" t="s">
         <v>24</v>
       </c>
@@ -7474,7 +7635,7 @@
         <v>3</v>
       </c>
       <c r="U70" s="31" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="V70" s="36" t="s">
         <v>8</v>
@@ -7488,11 +7649,8 @@
       <c r="Y70" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="Z70" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA70" s="43" t="s">
-        <v>18</v>
+      <c r="Z70" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="AB70" s="43" t="s">
         <v>18</v>
@@ -7512,1163 +7670,2675 @@
       <c r="AG70" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AH70" s="31" t="s">
+      <c r="AO70" s="36"/>
+      <c r="AV70" s="36"/>
+    </row>
+    <row r="71" spans="1:53" s="29" customFormat="1"/>
+    <row r="72" spans="1:53" s="13" customFormat="1" ht="12.75">
+      <c r="A72" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AV72" s="12"/>
+      <c r="AW72" s="12"/>
+    </row>
+    <row r="73" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A73" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M73" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O73" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P73" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q73" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R73" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="S73" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T73" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U73" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V73" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="W73" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X73" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y73" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z73" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA73" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB73" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC73" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD73" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE73" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF73" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG73" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH73" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI73" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ73" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK73" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL73" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM73" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN73" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO73" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP73" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ73" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR73" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS73" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT73" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU73" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV73" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW73" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX73" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY73" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ73" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA73" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:53" s="31" customFormat="1" ht="38.25">
+      <c r="A74" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AI70" s="31" t="s">
+      <c r="L74" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="M74" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O74" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q74" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="R74" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="S74" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T74" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U74" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="V74" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W74" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="X74" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y74" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z74" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA74" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB74" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC74" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD74" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE74" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF74" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG74" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH74" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AJ70" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK70" s="31" t="s">
+      <c r="AJ74" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK74" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL74" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM74" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN74" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO74" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP74" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ74" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV74" s="36"/>
+      <c r="AZ74" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA74" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53" s="29" customFormat="1"/>
+    <row r="76" spans="1:53" s="13" customFormat="1" ht="12.75">
+      <c r="A76" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AO76" s="12"/>
+      <c r="AP76" s="12"/>
+      <c r="AV76" s="12"/>
+      <c r="AW76" s="12"/>
+    </row>
+    <row r="77" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A77" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M77" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O77" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P77" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q77" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R77" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="S77" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T77" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U77" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V77" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="W77" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X77" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y77" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z77" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA77" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB77" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC77" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD77" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE77" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF77" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG77" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH77" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI77" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ77" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK77" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL77" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM77" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN77" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO77" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP77" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ77" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR77" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS77" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT77" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU77" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV77" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW77" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX77" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY77" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ77" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA77" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:53" s="31" customFormat="1" ht="38.25">
+      <c r="A78" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="M78" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N78" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O78" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q78" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="R78" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="S78" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T78" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U78" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="V78" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W78" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="X78" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y78" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z78" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA78" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB78" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC78" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD78" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE78" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF78" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG78" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH78" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI78" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ78" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK78" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="AL70" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM70" s="31" t="s">
+      <c r="AL78" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM78" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AN70" s="31" t="s">
+      <c r="AN78" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="AO70" s="36" t="s">
+      <c r="AO78" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AP70" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ70" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV70" s="36"/>
-      <c r="AZ70" s="31" t="s">
+      <c r="AP78" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ78" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV78" s="36"/>
+      <c r="AZ78" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="BA70" s="43" t="s">
+      <c r="BA78" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:53" s="29" customFormat="1"/>
-    <row r="72" spans="1:53" s="27" customFormat="1" ht="12.75">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="26"/>
-      <c r="T72" s="26"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="26"/>
-      <c r="Y72" s="26"/>
-      <c r="AB72" s="26"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="24"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
-      <c r="AI72" s="24"/>
-      <c r="AJ72" s="26"/>
-      <c r="AK72" s="26"/>
-      <c r="AL72" s="26"/>
-      <c r="AM72" s="26"/>
-      <c r="AN72" s="24"/>
-      <c r="AO72" s="24"/>
-      <c r="AP72" s="24"/>
-      <c r="AQ72" s="26"/>
-      <c r="AT72" s="26"/>
-      <c r="AU72" s="24"/>
-      <c r="AV72" s="24"/>
-      <c r="AW72" s="24"/>
-      <c r="AX72" s="26"/>
-    </row>
-    <row r="73" spans="1:53" s="27" customFormat="1" ht="12.75">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="26"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="26"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="24"/>
-      <c r="AJ73" s="26"/>
-      <c r="AK73" s="26"/>
-      <c r="AL73" s="26"/>
-      <c r="AM73" s="26"/>
-      <c r="AN73" s="24"/>
-      <c r="AO73" s="24"/>
-      <c r="AP73" s="24"/>
-      <c r="AQ73" s="26"/>
-      <c r="AT73" s="26"/>
-      <c r="AU73" s="24"/>
-      <c r="AV73" s="24"/>
-      <c r="AW73" s="24"/>
-      <c r="AX73" s="26"/>
-    </row>
-    <row r="74" spans="1:53" s="13" customFormat="1" ht="12.75">
-      <c r="A74" s="11" t="s">
+    <row r="79" spans="1:53" s="29" customFormat="1"/>
+    <row r="80" spans="1:53" s="13" customFormat="1" ht="12" customHeight="1">
+      <c r="A80" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AO80" s="12"/>
+      <c r="AP80" s="12"/>
+      <c r="AV80" s="12"/>
+      <c r="AW80" s="12"/>
+    </row>
+    <row r="81" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A81" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G81" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L81" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M81" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O81" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P81" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q81" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R81" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="S81" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T81" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U81" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V81" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="W81" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X81" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y81" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z81" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA81" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB81" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC81" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD81" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE81" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF81" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG81" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH81" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI81" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ81" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK81" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL81" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM81" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN81" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO81" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP81" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ81" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR81" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS81" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT81" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU81" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV81" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW81" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX81" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY81" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ81" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA81" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:53" s="31" customFormat="1" ht="51">
+      <c r="A82" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="M82" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O82" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q82" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="R82" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S82" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T82" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U82" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="V82" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W82" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="X82" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y82" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z82" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA82" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB82" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC82" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD82" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE82" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF82" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG82" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH82" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI82" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ82" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK82" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL82" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM82" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN82" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO82" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP82" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ82" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV82" s="36"/>
+      <c r="AZ82" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA82" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:53" s="29" customFormat="1"/>
+    <row r="84" spans="1:53" s="13" customFormat="1" ht="12" customHeight="1">
+      <c r="A84" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AO84" s="12"/>
+      <c r="AP84" s="12"/>
+      <c r="AV84" s="12"/>
+      <c r="AW84" s="12"/>
+    </row>
+    <row r="85" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A85" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G85" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M85" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="O85" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P85" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q85" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R85" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="S85" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T85" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="U85" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V85" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="W85" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X85" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y85" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z85" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA85" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB85" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC85" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD85" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE85" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF85" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG85" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH85" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI85" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ85" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK85" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL85" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM85" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN85" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO85" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP85" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ85" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR85" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS85" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT85" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU85" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV85" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW85" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX85" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY85" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ85" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA85" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:53" s="31" customFormat="1" ht="51">
+      <c r="A86" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="M86" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N86" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="O86" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q86" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="R86" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S86" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T86" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U86" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="V86" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="W86" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="X86" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y86" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z86" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA86" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB86" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC86" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD86" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE86" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF86" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG86" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH86" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI86" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ86" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK86" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL86" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM86" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN86" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO86" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP86" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ86" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV86" s="36"/>
+      <c r="AZ86" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA86" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:53" s="29" customFormat="1"/>
+    <row r="88" spans="1:53" s="13" customFormat="1" ht="12.75">
+      <c r="A88" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="AB88" s="12"/>
+      <c r="AC88" s="12"/>
+      <c r="AO88" s="12"/>
+      <c r="AP88" s="12"/>
+      <c r="AV88" s="12"/>
+      <c r="AW88" s="12"/>
+    </row>
+    <row r="89" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A89" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O89" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P89" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q89" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R89" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="S89" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T89" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U89" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="V89" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="W89" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X89" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y89" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z89" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA89" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB89" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC89" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD89" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE89" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF89" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG89" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH89" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI89" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ89" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK89" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL89" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM89" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN89" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO89" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP89" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ89" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR89" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS89" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT89" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU89" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV89" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW89" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX89" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY89" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ89" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA89" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:53" s="9" customFormat="1" ht="38.25">
+      <c r="A90" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R90" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="S90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U90" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="V90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X90" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB90" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC90" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD90" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE90" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG90" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO90" s="15"/>
+      <c r="AS90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW90" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY90" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ90" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA90" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:53" s="27" customFormat="1" ht="12.75">
+      <c r="A92" s="24"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="24"/>
+      <c r="V92" s="24"/>
+      <c r="W92" s="24"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="24"/>
+      <c r="AD92" s="24"/>
+      <c r="AE92" s="24"/>
+      <c r="AF92" s="24"/>
+      <c r="AG92" s="24"/>
+      <c r="AH92" s="24"/>
+      <c r="AI92" s="24"/>
+      <c r="AJ92" s="26"/>
+      <c r="AK92" s="26"/>
+      <c r="AL92" s="26"/>
+      <c r="AM92" s="26"/>
+      <c r="AN92" s="24"/>
+      <c r="AO92" s="24"/>
+      <c r="AP92" s="24"/>
+      <c r="AQ92" s="26"/>
+      <c r="AT92" s="26"/>
+      <c r="AU92" s="24"/>
+      <c r="AV92" s="24"/>
+      <c r="AW92" s="24"/>
+      <c r="AX92" s="26"/>
+    </row>
+    <row r="93" spans="1:53" s="27" customFormat="1" ht="12.75">
+      <c r="A93" s="24"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
+      <c r="P93" s="26"/>
+      <c r="Q93" s="26"/>
+      <c r="R93" s="26"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="24"/>
+      <c r="V93" s="24"/>
+      <c r="W93" s="24"/>
+      <c r="X93" s="26"/>
+      <c r="Y93" s="26"/>
+      <c r="AB93" s="26"/>
+      <c r="AC93" s="24"/>
+      <c r="AD93" s="24"/>
+      <c r="AE93" s="24"/>
+      <c r="AF93" s="24"/>
+      <c r="AG93" s="24"/>
+      <c r="AH93" s="24"/>
+      <c r="AI93" s="24"/>
+      <c r="AJ93" s="26"/>
+      <c r="AK93" s="26"/>
+      <c r="AL93" s="26"/>
+      <c r="AM93" s="26"/>
+      <c r="AN93" s="24"/>
+      <c r="AO93" s="24"/>
+      <c r="AP93" s="24"/>
+      <c r="AQ93" s="26"/>
+      <c r="AT93" s="26"/>
+      <c r="AU93" s="24"/>
+      <c r="AV93" s="24"/>
+      <c r="AW93" s="24"/>
+      <c r="AX93" s="26"/>
+    </row>
+    <row r="94" spans="1:53" s="13" customFormat="1" ht="12.75">
+      <c r="A94" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="12"/>
-      <c r="AO74" s="12"/>
-      <c r="AP74" s="12"/>
-      <c r="AV74" s="12"/>
-      <c r="AW74" s="12"/>
-    </row>
-    <row r="75" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A75" s="18" t="s">
+      <c r="B94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="AB94" s="12"/>
+      <c r="AC94" s="12"/>
+      <c r="AO94" s="12"/>
+      <c r="AP94" s="12"/>
+      <c r="AV94" s="12"/>
+      <c r="AW94" s="12"/>
+    </row>
+    <row r="95" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A95" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B95" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C95" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D95" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E95" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F95" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G95" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H95" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I75" s="16" t="s">
+      <c r="I95" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J75" s="16" t="s">
+      <c r="J95" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K75" s="16" t="s">
+      <c r="K95" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L75" s="16" t="s">
+      <c r="L95" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M75" s="10" t="s">
+      <c r="M95" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N75" s="10" t="s">
+      <c r="N95" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O75" s="10" t="s">
+      <c r="O95" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="P75" s="16" t="s">
+      <c r="P95" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Q75" s="10" t="s">
+      <c r="Q95" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R75" s="10" t="s">
+      <c r="R95" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="S75" s="10" t="s">
+      <c r="S95" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T75" s="10" t="s">
+      <c r="T95" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U75" s="16" t="s">
+      <c r="U95" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="V75" s="16" t="s">
+      <c r="V95" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="W75" s="16" t="s">
+      <c r="W95" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="X75" s="10" t="s">
+      <c r="X95" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y75" s="10" t="s">
+      <c r="Y95" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Z75" s="10" t="s">
+      <c r="Z95" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AA75" s="16" t="s">
+      <c r="AA95" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AB75" s="10" t="s">
+      <c r="AB95" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AC75" s="16" t="s">
+      <c r="AC95" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AD75" s="17" t="s">
+      <c r="AD95" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AE75" s="16" t="s">
+      <c r="AE95" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AF75" s="16" t="s">
+      <c r="AF95" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AG75" s="16" t="s">
+      <c r="AG95" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AH75" s="16" t="s">
+      <c r="AH95" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AI75" s="16" t="s">
+      <c r="AI95" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AJ75" s="10" t="s">
+      <c r="AJ95" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AK75" s="10" t="s">
+      <c r="AK95" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AL75" s="10" t="s">
+      <c r="AL95" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AM75" s="10" t="s">
+      <c r="AM95" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AN75" s="16" t="s">
+      <c r="AN95" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AO75" s="16" t="s">
+      <c r="AO95" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AP75" s="16" t="s">
+      <c r="AP95" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AQ75" s="10" t="s">
+      <c r="AQ95" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AR75" s="10" t="s">
+      <c r="AR95" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AS75" s="16" t="s">
+      <c r="AS95" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AT75" s="10" t="s">
+      <c r="AT95" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AU75" s="16" t="s">
+      <c r="AU95" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AV75" s="16" t="s">
+      <c r="AV95" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AW75" s="16" t="s">
+      <c r="AW95" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AX75" s="10" t="s">
+      <c r="AX95" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="AY75" s="16" t="s">
+      <c r="AY95" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:53" s="9" customFormat="1" ht="25.5">
-      <c r="A76" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="22" t="s">
+    <row r="96" spans="1:53" s="9" customFormat="1" ht="25.5">
+      <c r="A96" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="21" t="s">
+      <c r="C96" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E96" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="L96" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N76" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O76" s="9" t="s">
+      <c r="N96" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O96" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P76" s="28" t="s">
+      <c r="P96" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T76" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V76" s="15"/>
-      <c r="Z76" s="9" t="s">
+      <c r="T96" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V96" s="15"/>
+      <c r="Z96" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA76" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB76" s="21" t="s">
+      <c r="AA96" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB96" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AC76" s="9" t="s">
+      <c r="AC96" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD76" s="9" t="s">
+      <c r="AD96" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE76" s="9" t="s">
+      <c r="AE96" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF76" s="9" t="s">
+      <c r="AF96" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG76" s="9" t="s">
+      <c r="AG96" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH76" s="9" t="s">
+      <c r="AH96" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI76" s="9" t="s">
+      <c r="AI96" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ76" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM76" s="9" t="s">
+      <c r="AJ96" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM96" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO76" s="15"/>
-      <c r="AV76" s="15"/>
-    </row>
-    <row r="77" spans="1:53" s="14" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
-      <c r="Z77" s="10"/>
-      <c r="AA77" s="16"/>
-      <c r="AB77" s="10"/>
-      <c r="AC77" s="16"/>
-      <c r="AD77" s="17"/>
-      <c r="AE77" s="16"/>
-      <c r="AF77" s="16"/>
-      <c r="AG77" s="16"/>
-      <c r="AH77" s="16"/>
-      <c r="AI77" s="16"/>
-      <c r="AJ77" s="10"/>
-      <c r="AK77" s="10"/>
-      <c r="AL77" s="10"/>
-      <c r="AM77" s="10"/>
-      <c r="AN77" s="16"/>
-      <c r="AO77" s="16"/>
-      <c r="AP77" s="16"/>
-      <c r="AQ77" s="10"/>
-      <c r="AR77" s="10"/>
-      <c r="AS77" s="16"/>
-      <c r="AT77" s="10"/>
-      <c r="AU77" s="16"/>
-      <c r="AV77" s="16"/>
-      <c r="AW77" s="16"/>
-      <c r="AX77" s="10"/>
-      <c r="AY77" s="16"/>
-    </row>
-    <row r="78" spans="1:53" s="9" customFormat="1" ht="25.5">
-      <c r="A78" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="22" t="s">
+      <c r="AO96" s="15"/>
+      <c r="AV96" s="15"/>
+    </row>
+    <row r="97" spans="1:51" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
+      <c r="W97" s="16"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="16"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="16"/>
+      <c r="AD97" s="17"/>
+      <c r="AE97" s="16"/>
+      <c r="AF97" s="16"/>
+      <c r="AG97" s="16"/>
+      <c r="AH97" s="16"/>
+      <c r="AI97" s="16"/>
+      <c r="AJ97" s="10"/>
+      <c r="AK97" s="10"/>
+      <c r="AL97" s="10"/>
+      <c r="AM97" s="10"/>
+      <c r="AN97" s="16"/>
+      <c r="AO97" s="16"/>
+      <c r="AP97" s="16"/>
+      <c r="AQ97" s="10"/>
+      <c r="AR97" s="10"/>
+      <c r="AS97" s="16"/>
+      <c r="AT97" s="10"/>
+      <c r="AU97" s="16"/>
+      <c r="AV97" s="16"/>
+      <c r="AW97" s="16"/>
+      <c r="AX97" s="10"/>
+      <c r="AY97" s="16"/>
+    </row>
+    <row r="98" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A98" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="21" t="s">
+      <c r="C98" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L98" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="N98" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O78" s="9" t="s">
+      <c r="O98" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P78" s="28" t="s">
+      <c r="P98" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T78" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V78" s="15"/>
-      <c r="Z78" s="9" t="s">
+      <c r="T98" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V98" s="15"/>
+      <c r="Z98" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA78" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB78" s="21" t="s">
+      <c r="AA98" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB98" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AC78" s="9" t="s">
+      <c r="AC98" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD78" s="9" t="s">
+      <c r="AD98" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE78" s="9" t="s">
+      <c r="AE98" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF78" s="9" t="s">
+      <c r="AF98" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG78" s="9" t="s">
+      <c r="AG98" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH78" s="9" t="s">
+      <c r="AH98" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI78" s="9" t="s">
+      <c r="AI98" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ78" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM78" s="9" t="s">
+      <c r="AJ98" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM98" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO78" s="15"/>
-      <c r="AV78" s="15"/>
-    </row>
-    <row r="79" spans="1:53" s="9" customFormat="1" ht="25.5">
-      <c r="A79" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="22" t="s">
+      <c r="AO98" s="15"/>
+      <c r="AV98" s="15"/>
+    </row>
+    <row r="99" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A99" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="21" t="s">
+      <c r="C99" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="L99" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N79" s="9" t="s">
+      <c r="N99" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O79" s="9" t="s">
+      <c r="O99" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P79" s="28" t="s">
+      <c r="P99" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T79" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V79" s="15"/>
-      <c r="Z79" s="9" t="s">
+      <c r="T99" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V99" s="15"/>
+      <c r="Z99" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA79" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB79" s="21" t="s">
+      <c r="AA99" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB99" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AC79" s="9" t="s">
+      <c r="AC99" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD79" s="9" t="s">
+      <c r="AD99" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE79" s="9" t="s">
+      <c r="AE99" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF79" s="9" t="s">
+      <c r="AF99" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG79" s="9" t="s">
+      <c r="AG99" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH79" s="9" t="s">
+      <c r="AH99" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI79" s="9" t="s">
+      <c r="AI99" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ79" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM79" s="9" t="s">
+      <c r="AJ99" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM99" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO79" s="15"/>
-      <c r="AV79" s="15"/>
-    </row>
-    <row r="80" spans="1:53" s="9" customFormat="1" ht="25.5">
-      <c r="A80" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" s="22" t="s">
+      <c r="AO99" s="15"/>
+      <c r="AV99" s="15"/>
+    </row>
+    <row r="100" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A100" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="21" t="s">
+      <c r="C100" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L100" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N80" s="9" t="s">
+      <c r="N100" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O80" s="9" t="s">
+      <c r="O100" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P80" s="28" t="s">
+      <c r="P100" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T80" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V80" s="15"/>
-      <c r="Z80" s="9" t="s">
+      <c r="T100" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="15"/>
+      <c r="Z100" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA80" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB80" s="21" t="s">
+      <c r="AA100" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB100" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AC80" s="9" t="s">
+      <c r="AC100" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD80" s="9" t="s">
+      <c r="AD100" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE80" s="9" t="s">
+      <c r="AE100" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF80" s="9" t="s">
+      <c r="AF100" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG80" s="9" t="s">
+      <c r="AG100" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH80" s="9" t="s">
+      <c r="AH100" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI80" s="9" t="s">
+      <c r="AI100" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ80" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM80" s="9" t="s">
+      <c r="AJ100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM100" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO80" s="15"/>
-      <c r="AV80" s="15"/>
-    </row>
-    <row r="81" spans="1:50" s="9" customFormat="1" ht="25.5">
-      <c r="A81" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="22" t="s">
+      <c r="AO100" s="15"/>
+      <c r="AV100" s="15"/>
+    </row>
+    <row r="101" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A101" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="21" t="s">
+      <c r="C101" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L81" s="9" t="s">
+      <c r="L101" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N81" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O81" s="9" t="s">
+      <c r="N101" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O101" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P81" s="28" t="s">
+      <c r="P101" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T81" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V81" s="15"/>
-      <c r="Z81" s="9" t="s">
+      <c r="T101" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V101" s="15"/>
+      <c r="Z101" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA81" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB81" s="21" t="s">
+      <c r="AA101" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB101" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AC81" s="9" t="s">
+      <c r="AC101" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD81" s="9" t="s">
+      <c r="AD101" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE81" s="9" t="s">
+      <c r="AE101" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF81" s="9" t="s">
+      <c r="AF101" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG81" s="9" t="s">
+      <c r="AG101" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH81" s="9" t="s">
+      <c r="AH101" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI81" s="9" t="s">
+      <c r="AI101" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM81" s="9" t="s">
+      <c r="AJ101" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM101" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO81" s="15"/>
-      <c r="AV81" s="15"/>
-    </row>
-    <row r="82" spans="1:50" s="9" customFormat="1" ht="25.5">
-      <c r="A82" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="22" t="s">
+      <c r="AO101" s="15"/>
+      <c r="AV101" s="15"/>
+    </row>
+    <row r="102" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A102" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="21" t="s">
+      <c r="C102" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="L102" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N82" s="9" t="s">
+      <c r="N102" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O82" s="9" t="s">
+      <c r="O102" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P82" s="28" t="s">
+      <c r="P102" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T82" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V82" s="15"/>
-      <c r="Z82" s="9" t="s">
+      <c r="T102" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="15"/>
+      <c r="Z102" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA82" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB82" s="21" t="s">
+      <c r="AA102" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AC82" s="9" t="s">
+      <c r="AC102" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD82" s="9" t="s">
+      <c r="AD102" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE82" s="9" t="s">
+      <c r="AE102" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF82" s="9" t="s">
+      <c r="AF102" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG82" s="9" t="s">
+      <c r="AG102" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH82" s="9" t="s">
+      <c r="AH102" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI82" s="9" t="s">
+      <c r="AI102" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ82" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM82" s="9" t="s">
+      <c r="AJ102" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM102" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO82" s="15"/>
-      <c r="AV82" s="15"/>
-    </row>
-    <row r="83" spans="1:50" s="9" customFormat="1" ht="25.5">
-      <c r="A83" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="22" t="s">
+      <c r="AO102" s="15"/>
+      <c r="AV102" s="15"/>
+    </row>
+    <row r="103" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A103" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="21" t="s">
+      <c r="C103" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="L103" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N83" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O83" s="9" t="s">
+      <c r="N103" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O103" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="P83" s="28" t="s">
+      <c r="P103" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T83" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V83" s="15"/>
-      <c r="Z83" s="9" t="s">
+      <c r="T103" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V103" s="15"/>
+      <c r="Z103" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA83" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB83" s="21" t="s">
+      <c r="AA103" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB103" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AC83" s="9" t="s">
+      <c r="AC103" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD83" s="9" t="s">
+      <c r="AD103" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE83" s="9" t="s">
+      <c r="AE103" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF83" s="9" t="s">
+      <c r="AF103" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG83" s="9" t="s">
+      <c r="AG103" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH83" s="9" t="s">
+      <c r="AH103" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI83" s="9" t="s">
+      <c r="AI103" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ83" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM83" s="9" t="s">
+      <c r="AJ103" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM103" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO83" s="15"/>
-      <c r="AV83" s="15"/>
-    </row>
-    <row r="84" spans="1:50" s="9" customFormat="1" ht="25.5">
-      <c r="A84" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="22" t="s">
+      <c r="AO103" s="15"/>
+      <c r="AV103" s="15"/>
+    </row>
+    <row r="104" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A104" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="21" t="s">
+      <c r="C104" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L84" s="9" t="s">
+      <c r="L104" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N84" s="9" t="s">
+      <c r="N104" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O84" s="9" t="s">
+      <c r="O104" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P84" s="28" t="s">
+      <c r="P104" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T84" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V84" s="15"/>
-      <c r="Z84" s="9" t="s">
+      <c r="T104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V104" s="15"/>
+      <c r="Z104" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA84" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB84" s="21" t="s">
+      <c r="AA104" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB104" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AC84" s="9" t="s">
+      <c r="AC104" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD84" s="9" t="s">
+      <c r="AD104" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE84" s="9" t="s">
+      <c r="AE104" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF84" s="9" t="s">
+      <c r="AF104" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG84" s="9" t="s">
+      <c r="AG104" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH84" s="9" t="s">
+      <c r="AH104" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI84" s="9" t="s">
+      <c r="AI104" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ84" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM84" s="9" t="s">
+      <c r="AJ104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM104" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO84" s="15"/>
-      <c r="AV84" s="15"/>
-    </row>
-    <row r="85" spans="1:50" s="9" customFormat="1" ht="25.5">
-      <c r="A85" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" s="22" t="s">
+      <c r="AO104" s="15"/>
+      <c r="AV104" s="15"/>
+    </row>
+    <row r="105" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A105" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="21" t="s">
+      <c r="C105" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="L105" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="N85" s="9" t="s">
+      <c r="N105" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O85" s="9" t="s">
+      <c r="O105" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P85" s="28" t="s">
+      <c r="P105" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T85" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V85" s="15"/>
-      <c r="Z85" s="9" t="s">
+      <c r="T105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V105" s="15"/>
+      <c r="Z105" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA85" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB85" s="21" t="s">
+      <c r="AA105" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB105" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AC85" s="9" t="s">
+      <c r="AC105" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD85" s="9" t="s">
+      <c r="AD105" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE85" s="9" t="s">
+      <c r="AE105" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF85" s="9" t="s">
+      <c r="AF105" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG85" s="9" t="s">
+      <c r="AG105" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH85" s="9" t="s">
+      <c r="AH105" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI85" s="9" t="s">
+      <c r="AI105" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM85" s="9" t="s">
+      <c r="AJ105" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM105" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO85" s="15"/>
-      <c r="AV85" s="15"/>
-    </row>
-    <row r="86" spans="1:50" s="9" customFormat="1" ht="25.5">
-      <c r="A86" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="22" t="s">
+      <c r="AO105" s="15"/>
+      <c r="AV105" s="15"/>
+    </row>
+    <row r="106" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A106" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="21" t="s">
+      <c r="C106" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="9" t="s">
+      <c r="L106" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="N106" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O86" s="9" t="s">
+      <c r="O106" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P86" s="28" t="s">
+      <c r="P106" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T86" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V86" s="15"/>
-      <c r="Z86" s="9" t="s">
+      <c r="T106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V106" s="15"/>
+      <c r="Z106" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA86" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB86" s="21" t="s">
+      <c r="AA106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB106" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="AC86" s="9" t="s">
+      <c r="AC106" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD86" s="9" t="s">
+      <c r="AD106" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE86" s="9" t="s">
+      <c r="AE106" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF86" s="9" t="s">
+      <c r="AF106" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG86" s="9" t="s">
+      <c r="AG106" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH86" s="9" t="s">
+      <c r="AH106" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI86" s="9" t="s">
+      <c r="AI106" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ86" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM86" s="9" t="s">
+      <c r="AJ106" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM106" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO86" s="15"/>
-      <c r="AV86" s="15"/>
-    </row>
-    <row r="87" spans="1:50" s="9" customFormat="1" ht="25.5">
-      <c r="A87" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="22" t="s">
+      <c r="AO106" s="15"/>
+      <c r="AV106" s="15"/>
+    </row>
+    <row r="107" spans="1:51" s="9" customFormat="1" ht="25.5">
+      <c r="A107" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" s="21" t="s">
+      <c r="C107" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="9" t="s">
+      <c r="L107" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="N87" s="9" t="s">
+      <c r="N107" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O87" s="9" t="s">
+      <c r="O107" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P87" s="28" t="s">
+      <c r="P107" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="T87" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V87" s="15"/>
-      <c r="Z87" s="9" t="s">
+      <c r="T107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V107" s="15"/>
+      <c r="Z107" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AA87" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB87" s="21" t="s">
+      <c r="AA107" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB107" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="AC87" s="9" t="s">
+      <c r="AC107" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AD87" s="9" t="s">
+      <c r="AD107" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE87" s="9" t="s">
+      <c r="AE107" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF87" s="9" t="s">
+      <c r="AF107" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG87" s="9" t="s">
+      <c r="AG107" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AH87" s="9" t="s">
+      <c r="AH107" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AI87" s="9" t="s">
+      <c r="AI107" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ87" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM87" s="9" t="s">
+      <c r="AJ107" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM107" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AO87" s="15"/>
-      <c r="AV87" s="15"/>
-    </row>
-    <row r="88" spans="1:50" s="27" customFormat="1" ht="12.75">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="26"/>
-      <c r="S88" s="26"/>
-      <c r="T88" s="26"/>
-      <c r="U88" s="24"/>
-      <c r="V88" s="24"/>
-      <c r="W88" s="24"/>
-      <c r="X88" s="26"/>
-      <c r="Y88" s="26"/>
-      <c r="AB88" s="26"/>
-      <c r="AC88" s="24"/>
-      <c r="AD88" s="24"/>
-      <c r="AE88" s="24"/>
-      <c r="AF88" s="24"/>
-      <c r="AG88" s="24"/>
-      <c r="AH88" s="24"/>
-      <c r="AI88" s="24"/>
-      <c r="AJ88" s="26"/>
-      <c r="AK88" s="26"/>
-      <c r="AL88" s="26"/>
-      <c r="AM88" s="26"/>
-      <c r="AN88" s="24"/>
-      <c r="AO88" s="24"/>
-      <c r="AP88" s="24"/>
-      <c r="AQ88" s="26"/>
-      <c r="AT88" s="26"/>
-      <c r="AU88" s="24"/>
-      <c r="AV88" s="24"/>
-      <c r="AW88" s="24"/>
-      <c r="AX88" s="26"/>
+      <c r="AO107" s="15"/>
+      <c r="AV107" s="15"/>
+    </row>
+    <row r="108" spans="1:51" s="27" customFormat="1" ht="12.75">
+      <c r="A108" s="24"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+      <c r="S108" s="26"/>
+      <c r="T108" s="26"/>
+      <c r="U108" s="24"/>
+      <c r="V108" s="24"/>
+      <c r="W108" s="24"/>
+      <c r="X108" s="26"/>
+      <c r="Y108" s="26"/>
+      <c r="AB108" s="26"/>
+      <c r="AC108" s="24"/>
+      <c r="AD108" s="24"/>
+      <c r="AE108" s="24"/>
+      <c r="AF108" s="24"/>
+      <c r="AG108" s="24"/>
+      <c r="AH108" s="24"/>
+      <c r="AI108" s="24"/>
+      <c r="AJ108" s="26"/>
+      <c r="AK108" s="26"/>
+      <c r="AL108" s="26"/>
+      <c r="AM108" s="26"/>
+      <c r="AN108" s="24"/>
+      <c r="AO108" s="24"/>
+      <c r="AP108" s="24"/>
+      <c r="AQ108" s="26"/>
+      <c r="AT108" s="26"/>
+      <c r="AU108" s="24"/>
+      <c r="AV108" s="24"/>
+      <c r="AW108" s="24"/>
+      <c r="AX108" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
